--- a/IT002-OOP/Điểm thực hành/it002m22htcl/it002m22htcl2.xlsx
+++ b/IT002-OOP/Điểm thực hành/it002m22htcl/it002m22htcl2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002m22htcl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E288F39C-5A2C-4452-BEB9-B0894B0C2C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE3916C-981B-4232-9F44-FA0AEA917502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -861,23 +861,23 @@
         <v>750</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F13" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H13" s="3">
         <v>9</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="0"/>
-        <v>6.1375000000000002</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
